--- a/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.46354067659577</v>
+        <v>93.09135776580511</v>
       </c>
       <c r="D2" t="n">
-        <v>4.391200593029886</v>
+        <v>4.397258867880372</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.8929541500159</v>
+        <v>92.49623667057126</v>
       </c>
       <c r="D3" t="n">
-        <v>4.20980430500056</v>
+        <v>4.321018851308674</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.82643476371265</v>
+        <v>91.35053163401231</v>
       </c>
       <c r="D4" t="n">
-        <v>4.318106700208054</v>
+        <v>3.868956712846519</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.85411478603436</v>
+        <v>89.64274577877322</v>
       </c>
       <c r="D5" t="n">
-        <v>4.242321223501069</v>
+        <v>4.32624786532342</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.04542095938491</v>
+        <v>89.2540505687769</v>
       </c>
       <c r="D6" t="n">
-        <v>4.876647893956943</v>
+        <v>4.076493739672572</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.79592219344332</v>
+        <v>88.36293460926372</v>
       </c>
       <c r="D7" t="n">
-        <v>4.515157671207665</v>
+        <v>4.096624926084457</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.17743577254396</v>
+        <v>87.02779587422062</v>
       </c>
       <c r="D8" t="n">
-        <v>4.662133908975985</v>
+        <v>4.073013119824994</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.70305083598585</v>
+        <v>85.17489504605433</v>
       </c>
       <c r="D9" t="n">
-        <v>3.956953071980584</v>
+        <v>3.674626983651359</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.62369442457032</v>
+        <v>84.38961245141441</v>
       </c>
       <c r="D10" t="n">
-        <v>4.553494719042778</v>
+        <v>4.406719981760735</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.89715064135694</v>
+        <v>83.57369395941708</v>
       </c>
       <c r="D11" t="n">
-        <v>3.949615767133783</v>
+        <v>3.907570838945698</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.42515087299344</v>
+        <v>82.81501805494392</v>
       </c>
       <c r="D12" t="n">
-        <v>4.298722964245822</v>
+        <v>4.153270186063586</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.85875074016653</v>
+        <v>81.0308524778727</v>
       </c>
       <c r="D13" t="n">
-        <v>4.144195097225984</v>
+        <v>4.056191008389723</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.41807553970763</v>
+        <v>79.7100113145555</v>
       </c>
       <c r="D14" t="n">
-        <v>4.096937413972879</v>
+        <v>3.941523005053065</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.45824801983431</v>
+        <v>79.39779580866693</v>
       </c>
       <c r="D15" t="n">
-        <v>4.455529685028803</v>
+        <v>4.018464262627838</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.24988732348822</v>
+        <v>77.7312774166713</v>
       </c>
       <c r="D16" t="n">
-        <v>4.063723806098901</v>
+        <v>4.357197938420609</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.77099834552733</v>
+        <v>76.45441999294208</v>
       </c>
       <c r="D17" t="n">
-        <v>4.423384956106462</v>
+        <v>4.785547564779141</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.76591586322986</v>
+        <v>76.21416633780231</v>
       </c>
       <c r="D18" t="n">
-        <v>3.655500507893962</v>
+        <v>4.435393552563848</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.2728124982001</v>
+        <v>75.41148018232241</v>
       </c>
       <c r="D19" t="n">
-        <v>4.340600531280492</v>
+        <v>4.410994155254875</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.32073101785252</v>
+        <v>73.8339203862685</v>
       </c>
       <c r="D20" t="n">
-        <v>4.616040595779049</v>
+        <v>3.636461186746008</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.572432062792</v>
+        <v>73.03203071672871</v>
       </c>
       <c r="D21" t="n">
-        <v>4.533685992032638</v>
+        <v>4.189823785704138</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.75975121634488</v>
+        <v>71.73138742157755</v>
       </c>
       <c r="D22" t="n">
-        <v>4.329606573543528</v>
+        <v>4.012825533547808</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.00314792207163</v>
+        <v>70.027803954962</v>
       </c>
       <c r="D23" t="n">
-        <v>4.119894834894604</v>
+        <v>3.939866937439462</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.2256696232875</v>
+        <v>69.19047506209354</v>
       </c>
       <c r="D24" t="n">
-        <v>4.535575500059318</v>
+        <v>3.80581580179082</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.289277661577</v>
+        <v>68.34887942736245</v>
       </c>
       <c r="D25" t="n">
-        <v>4.548798571829428</v>
+        <v>4.09256607625235</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.04752943765511</v>
+        <v>67.50192577513141</v>
       </c>
       <c r="D26" t="n">
-        <v>4.255186882450744</v>
+        <v>4.02634309893027</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.97649849841427</v>
+        <v>65.87853908524369</v>
       </c>
       <c r="D27" t="n">
-        <v>4.499023164590371</v>
+        <v>4.075585124890199</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.31199334683905</v>
+        <v>65.4096116432534</v>
       </c>
       <c r="D28" t="n">
-        <v>3.903405964783605</v>
+        <v>4.214361205242001</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.07774200965009</v>
+        <v>63.53198314703168</v>
       </c>
       <c r="D29" t="n">
-        <v>3.954865146994597</v>
+        <v>3.988844130374224</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.97708511579575</v>
+        <v>63.27348081413947</v>
       </c>
       <c r="D30" t="n">
-        <v>4.330470936353363</v>
+        <v>3.776776144380603</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.69874255306353</v>
+        <v>62.25602034724023</v>
       </c>
       <c r="D31" t="n">
-        <v>4.206877214003692</v>
+        <v>3.683589380994483</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.3129975965123</v>
+        <v>61.43549894357561</v>
       </c>
       <c r="D32" t="n">
-        <v>4.001588590628247</v>
+        <v>4.375438955502821</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.42753794775501</v>
+        <v>60.15934249261211</v>
       </c>
       <c r="D33" t="n">
-        <v>3.394868181215259</v>
+        <v>4.24467021398967</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.9016663502492</v>
+        <v>58.66938845499413</v>
       </c>
       <c r="D34" t="n">
-        <v>3.904989599473929</v>
+        <v>4.044197539422335</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.31138519030249</v>
+        <v>58.21297438729624</v>
       </c>
       <c r="D35" t="n">
-        <v>4.564312448138702</v>
+        <v>3.769335449818383</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.35413603836096</v>
+        <v>56.07191992340185</v>
       </c>
       <c r="D36" t="n">
-        <v>4.294081228472746</v>
+        <v>4.003939802905949</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.87163014612412</v>
+        <v>55.40997485372011</v>
       </c>
       <c r="D37" t="n">
-        <v>4.409833312791091</v>
+        <v>4.153903177949615</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.1501453545612</v>
+        <v>55.18144691143584</v>
       </c>
       <c r="D38" t="n">
-        <v>4.396206279324285</v>
+        <v>3.680620108813567</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.83464474949571</v>
+        <v>54.1588733511788</v>
       </c>
       <c r="D39" t="n">
-        <v>3.751160473440326</v>
+        <v>3.771641067841977</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.975432802493</v>
+        <v>52.62270931016791</v>
       </c>
       <c r="D40" t="n">
-        <v>4.023111140742542</v>
+        <v>4.008168557899492</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.39029534983911</v>
+        <v>50.82260468106389</v>
       </c>
       <c r="D41" t="n">
-        <v>3.780208064468328</v>
+        <v>4.423084518811447</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.0820941065387</v>
+        <v>50.01192516138329</v>
       </c>
       <c r="D42" t="n">
-        <v>4.146221663790774</v>
+        <v>3.925506812996411</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.25590481452357</v>
+        <v>49.91724282646675</v>
       </c>
       <c r="D43" t="n">
-        <v>4.039713801303996</v>
+        <v>3.936165885178133</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.00966767513505</v>
+        <v>48.11528781512072</v>
       </c>
       <c r="D44" t="n">
-        <v>4.095986262438919</v>
+        <v>3.613170455242666</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.04878767168683</v>
+        <v>46.94904447704855</v>
       </c>
       <c r="D45" t="n">
-        <v>3.923310602500017</v>
+        <v>4.355000933241904</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.30815132024203</v>
+        <v>46.62551090563509</v>
       </c>
       <c r="D46" t="n">
-        <v>4.655536480595334</v>
+        <v>3.914612011461099</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.48178351008027</v>
+        <v>45.76565967034691</v>
       </c>
       <c r="D47" t="n">
-        <v>3.776061392137759</v>
+        <v>4.02655002950094</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.14934958868529</v>
+        <v>44.5200317022929</v>
       </c>
       <c r="D48" t="n">
-        <v>3.685165579728432</v>
+        <v>4.267016366396662</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.98606701473324</v>
+        <v>43.28733356792188</v>
       </c>
       <c r="D49" t="n">
-        <v>4.42741159519107</v>
+        <v>3.776289888059548</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.42203863417294</v>
+        <v>42.06226071822535</v>
       </c>
       <c r="D50" t="n">
-        <v>3.882191317175936</v>
+        <v>4.318404893210088</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.3709496911369</v>
+        <v>41.33597233647141</v>
       </c>
       <c r="D51" t="n">
-        <v>3.971688096885776</v>
+        <v>4.229219934669162</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.57231401310183</v>
+        <v>39.8629218660206</v>
       </c>
       <c r="D52" t="n">
-        <v>3.888135209796566</v>
+        <v>3.926543974662124</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.72049700556622</v>
+        <v>39.59964145692597</v>
       </c>
       <c r="D53" t="n">
-        <v>4.129282061443584</v>
+        <v>4.07104088426901</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.24625327079401</v>
+        <v>38.43931663897649</v>
       </c>
       <c r="D54" t="n">
-        <v>4.288202512300234</v>
+        <v>3.977916252994183</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.36584821164311</v>
+        <v>37.365864031594</v>
       </c>
       <c r="D55" t="n">
-        <v>3.992294459318528</v>
+        <v>3.968806713573401</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.75615411444159</v>
+        <v>35.83277509047776</v>
       </c>
       <c r="D56" t="n">
-        <v>3.976914783307003</v>
+        <v>3.852985314197225</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.67781445981176</v>
+        <v>34.66644598738896</v>
       </c>
       <c r="D57" t="n">
-        <v>4.054623401829904</v>
+        <v>4.279188599493206</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.10447190854011</v>
+        <v>34.23417271193309</v>
       </c>
       <c r="D58" t="n">
-        <v>4.276218983819057</v>
+        <v>4.007948363502476</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.57816172935401</v>
+        <v>32.84443773323696</v>
       </c>
       <c r="D59" t="n">
-        <v>4.037931504787314</v>
+        <v>4.523904133492771</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.04054132647948</v>
+        <v>32.51744524989574</v>
       </c>
       <c r="D60" t="n">
-        <v>4.00895103046657</v>
+        <v>4.041965887173106</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.83424941290808</v>
+        <v>30.61383782591105</v>
       </c>
       <c r="D61" t="n">
-        <v>3.62837986657369</v>
+        <v>3.721805025075443</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.10003775217277</v>
+        <v>30.20594675963924</v>
       </c>
       <c r="D62" t="n">
-        <v>3.807748726991402</v>
+        <v>4.065155609558681</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.59642987963757</v>
+        <v>29.27808924320524</v>
       </c>
       <c r="D63" t="n">
-        <v>3.870452594516981</v>
+        <v>3.683238521324096</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.86821110954068</v>
+        <v>27.73677131227503</v>
       </c>
       <c r="D64" t="n">
-        <v>4.244970196316076</v>
+        <v>4.10510418413979</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.1289801946667</v>
+        <v>27.37871727455594</v>
       </c>
       <c r="D65" t="n">
-        <v>4.252458265688832</v>
+        <v>4.300773865856511</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.21154391629121</v>
+        <v>26.54793881753177</v>
       </c>
       <c r="D66" t="n">
-        <v>3.910894844610897</v>
+        <v>3.966326636446947</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.2714629077782</v>
+        <v>25.01888323529859</v>
       </c>
       <c r="D67" t="n">
-        <v>3.966724404120502</v>
+        <v>3.452618772783945</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.75006415996016</v>
+        <v>23.32126622737653</v>
       </c>
       <c r="D68" t="n">
-        <v>4.341689398728365</v>
+        <v>4.137815876095308</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.94188006269037</v>
+        <v>23.53188826408435</v>
       </c>
       <c r="D69" t="n">
-        <v>4.248507640526197</v>
+        <v>4.265801917780326</v>
       </c>
     </row>
   </sheetData>
